--- a/Definition.xlsx
+++ b/Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Seven-Sketches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C370E8A-BD42-44FC-BA5D-AC9F66B18E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA590C7-ACD9-4E27-8EB8-A6B8BD9D0C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{37B950A1-4C60-4340-A18D-2C8260A572D5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,21 +49,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>针对一个集合，划分为多个互相没有交集的，而并集又等同于原集合的，集合的集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个函数，有3个特性，自反，交换，传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equivalence relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arbitrary function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surjective function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>injective function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bijective function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随意的，无特定规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标集合里面，每个对象都有映射到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果结果相等，必然有输入相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时满足SURJECTIVE和INJECTIVE，一一对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x&gt;=y + y&gt;=x == x=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">skeletality preorder;  Partially Ordered SET </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for a set X, 所以子集的集合，P(X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fineness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>partition</t>
-  </si>
-  <si>
-    <t>针对一个集合，划分为多个互相没有交集的，而并集又等同于原集合的，集合的集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equivalence relation</t>
-  </si>
-  <si>
-    <t>一个函数，有3个特性，自反，交换，传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个partition P的每个集合，都是partiyionQ的某个集合的子集，则P finer than Q，Q coarser than P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7EBA41-E84A-4B91-98B0-5E883C89559A}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -451,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -459,10 +525,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -476,13 +542,107 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Definition.xlsx
+++ b/Definition.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Seven-Sketches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA590C7-ACD9-4E27-8EB8-A6B8BD9D0C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02163930-D929-479F-8027-BB1DB70246E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{37B950A1-4C60-4340-A18D-2C8260A572D5}"/>
+    <workbookView xWindow="5460" yWindow="2040" windowWidth="17280" windowHeight="8964" xr2:uid="{37B950A1-4C60-4340-A18D-2C8260A572D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +131,72 @@
   </si>
   <si>
     <t>一个partition P的每个集合，都是partiyionQ的某个集合的子集，则P finer than Q，Q coarser than P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对一个preorder的子集，满足比任何元素大的元素都在这个子集中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product preorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preorder P Q，(p1,q1)&lt;=(p2,q1) 当p1&lt;=p2,q1&lt;=q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opposite preorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preorder P, 取反，就是&lt;= 转化为&gt;=，记为&lt;=op（上标）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greast lower bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>least upper bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>universal properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinctive characterizations 区别性的界定方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generative effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>• Top: the category of topological spaces (neighborhood) • Grph: the category of graphs (connection) • Meas: the category of measure spaces (amount) • Mon: the category of monoids (action) • Grp: the category of groups (reversible action, symmetry) • Cat: the category of categories (action in context, structure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(页码87). </t>
+  </si>
+  <si>
+    <t>Definition 3.28. An isomorphism is a morphism f : A → B such that there exists a morphism 1 : B → A satisfying f # 1   idA and 1 # f   idB. In this case we call f and 1 inverses, and we often write 1   f −1 , or equivalently f   1 −1 . We also say that A and B are isomorphic objects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomorphism</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,9 +243,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7EBA41-E84A-4B91-98B0-5E883C89559A}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -645,9 +715,129 @@
         <v>1.52</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>3.28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC56D0E-3149-41F8-8FF5-8EB326E21F1E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>